--- a/Buyer hub/Reports/Manual testcases/Reports Spending per SKU.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Reports Spending per SKU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Reports\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC843AD-4BBD-479F-AC44-F1DE8E8D5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABC932-AE35-4D3C-B1D8-7ACEF0017289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>SL. No</t>
   </si>
@@ -101,6 +101,240 @@
     </r>
   </si>
   <si>
+    <t>SKU details : SKU, Supplier, Quantity, UOM, Amount</t>
+  </si>
+  <si>
+    <t>It gets displayed the SKU, Supplier, Quantity, UOM, Amount</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'SKU'</t>
+    </r>
+  </si>
+  <si>
+    <t>Once click the particular Supplier,it goes to SKU details page</t>
+  </si>
+  <si>
+    <t>It displayed the SKU Chart ,its in a Blue color</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Export'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Once click the Export ,I will downloaded the CSV file </t>
+  </si>
+  <si>
+    <t>It gets displayed</t>
+  </si>
+  <si>
+    <t>Click the back arrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once click the back arrow on the Top left corner </t>
+  </si>
+  <si>
+    <t>It goes to Previous page if you click</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Filter'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filter-&gt;Outlets</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It should show List of Outlets and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select all and Deselect all and Apply or Reset'</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Once click the selected option and Apply, It will display the Details of selected outlets                                                                             2.if you select Reset it will back to normal page</t>
+  </si>
+  <si>
+    <t>Details of SKU are Period, Quantity, Av.price and Amount</t>
+  </si>
+  <si>
+    <t>It display Particular SKU chart and Details ,below chart should have date range like 11 jul-18 jul 2021…etc</t>
+  </si>
+  <si>
+    <t>If you click date picker , select View by Month and bag</t>
+  </si>
+  <si>
+    <t>It display the Details of SKU based on selected date range.       *only if we select the 'bag' choice it will display the Average price and Quantity purchased</t>
+  </si>
+  <si>
+    <t>It gets displayed the details of Price history like Date, Invoice, Discounted and Unit price</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Price history'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I will shows                                           * Calender picker and List of Outlets dropdown                               * 'Average price during the period and Total spending during the period'</t>
+    </r>
+  </si>
+  <si>
+    <t>it will come Outlets, Suppliers, Reset and Apply</t>
+  </si>
+  <si>
+    <t>As expected it displayed the Outlet, Suppliers, Reset and Apply</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filter-&gt;Suppliers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It should show List of suppliers and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select all and Deselect all and Apply or Reset'</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Once click the selected option and Apply It will display the Details of selected suppliers                                                                             2.if you select Reset it will back to normal page</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -131,24 +365,76 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'Outlet, Supplier, SKU, Category and Tag                                                                                                         2.'Search SKU' text box                                                                                               3. calendar picker: Once click the calender It shows Today, Yesterday, This week, This Month, YTD, Last year, Custom range, cancel and Apply And Filter and Export                                 </t>
-    </r>
-  </si>
-  <si>
-    <t>SKU details : SKU, Supplier, Quantity, UOM, Amount</t>
-  </si>
-  <si>
-    <t>It gets displayed the SKU, Supplier, Quantity, UOM, Amount</t>
+      <t xml:space="preserve"> 'Outlet, Supplier, SKU, Category and Tag                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                         2.'Search SKU' text box                                                                                               3. calendar picker: Once click the calender It shows Today, Yesterday, This week, This Month, YTD, Last year, Custom range, cancel and Apply And Filter and Export                                 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the SKU name on top(Supplied by name), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spending by period, Spending by outlet, Price history, Calendar picker, View by week, All UOMs, Filter, Export, Total spending, Invoices, Period, Invoices and Amount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the SKU ,it will shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Spending by period, Spending by outlet, Price history"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Spending by period'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is selected in blue color</t>
+    </r>
   </si>
   <si>
     <r>
@@ -163,233 +449,86 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>'SKU-&gt;Spending by outlet'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'SKU-&gt;Spending by period'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(New implement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It will appears </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Calender picker, View by value/ View by quantity and Export"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>'SKU'</t>
     </r>
-  </si>
-  <si>
-    <t>Click the SKU ,it will shows Spending details, Price history</t>
-  </si>
-  <si>
-    <t>Once click the particular Supplier,it goes to SKU details page</t>
-  </si>
-  <si>
-    <t>It displayed the SKU Chart ,its in a Blue color</t>
-  </si>
-  <si>
-    <t>It gets displayed the SKU name on top(Supplied by name), Spending details, Price history, Calendar picker, View by week, bag, Total spending, Average price, Quantity price, Quantity purchased, Invoice, Filter and Export</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Export'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Once click the Export ,I will downloaded the CSV file </t>
-  </si>
-  <si>
-    <t>It gets displayed</t>
-  </si>
-  <si>
-    <t>Click the back arrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once click the back arrow on the Top left corner </t>
-  </si>
-  <si>
-    <t>It goes to Previous page if you click</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Filter'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Filter-&gt;Outlets</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>It should show List of Outlets and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select all and Deselect all and Apply or Reset'</t>
-    </r>
-  </si>
-  <si>
-    <t>1.Once click the selected option and Apply, It will display the Details of selected outlets                                                                             2.if you select Reset it will back to normal page</t>
-  </si>
-  <si>
-    <t>Details of SKU are Period, Quantity, Av.price and Amount</t>
-  </si>
-  <si>
-    <t>It display Particular SKU chart and Details ,below chart should have date range like 11 jul-18 jul 2021…etc</t>
-  </si>
-  <si>
-    <t>If you click date picker , select View by Month and bag</t>
-  </si>
-  <si>
-    <t>It display the Details of SKU based on selected date range.       *only if we select the 'bag' choice it will display the Average price and Quantity purchased</t>
-  </si>
-  <si>
-    <t>It gets displayed the details of Price history like Date, Invoice, Discounted and Unit price</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Once click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Price history'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> I will shows                                           * Calender picker and List of Outlets dropdown                               * 'Average price during the period and Total spending during the period'</t>
-    </r>
-  </si>
-  <si>
-    <t>it will come Outlets, Suppliers, Reset and Apply</t>
-  </si>
-  <si>
-    <t>As expected it displayed the Outlet, Suppliers, Reset and Apply</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Filter-&gt;Suppliers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>It should show List of suppliers and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select all and Deselect all and Apply or Reset'</t>
-    </r>
-  </si>
-  <si>
-    <t>1.Once click the selected option and Apply It will display the Details of selected suppliers                                                                             2.if you select Reset it will back to normal page</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(New)</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the details of the Spending by period are "calender picker, View by week, All UOMs, Filter and Export</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +547,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -763,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,7 +975,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -842,7 +989,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
@@ -865,39 +1012,39 @@
         <v>15</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -908,19 +1055,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -931,19 +1078,19 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -954,65 +1101,59 @@
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1023,19 +1164,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1046,19 +1187,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1069,19 +1210,19 @@
         <v>9</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1092,19 +1233,19 @@
         <v>9</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1115,15 +1256,38 @@
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Buyer hub/Reports/Manual testcases/Reports Spending per SKU.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Reports Spending per SKU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ABC932-AE35-4D3C-B1D8-7ACEF0017289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB3645-0B0C-42C6-9418-8EF8F200FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -244,7 +244,271 @@
     <t>It display the Details of SKU based on selected date range.       *only if we select the 'bag' choice it will display the Average price and Quantity purchased</t>
   </si>
   <si>
-    <t>It gets displayed the details of Price history like Date, Invoice, Discounted and Unit price</t>
+    <t>it will come Outlets, Suppliers, Reset and Apply</t>
+  </si>
+  <si>
+    <t>As expected it displayed the Outlet, Suppliers, Reset and Apply</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filter-&gt;Suppliers</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>It should show List of suppliers and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select all and Deselect all and Apply or Reset'</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Once click the selected option and Apply It will display the Details of selected suppliers                                                                             2.if you select Reset it will back to normal page</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In Spending per Supplier:                                                                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. It should show the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Outlet, Supplier, SKU, Category and Tag                                                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                         2.'Search SKU' text box                                                                                               3. calendar picker: Once click the calender It shows Today, Yesterday, This week, This Month, YTD, Last year, Custom range, cancel and Apply And Filter and Export                                 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It gets displayed the SKU name on top(Supplied by name), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Spending by period, Spending by outlet, Price history, Calendar picker, View by week, All UOMs, Filter, Export, Total spending, Invoices, Period, Invoices and Amount</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the SKU ,it will shows </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Spending by period, Spending by outlet, Price history"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By default </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'Spending by period'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is selected in blue color</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'SKU-&gt;Spending by outlet'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'SKU-&gt;Spending by period'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(New implement)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It will appears </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Calender picker, View by value/ View by quantity and Export"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'SKU'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(New)</t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the details of the Spending by period are "calender picker, View by week, All UOMs, Filter and Export</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click the particular </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'SKU&gt; Price history</t>
+    </r>
   </si>
   <si>
     <r>
@@ -269,259 +533,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> I will shows                                           * Calender picker and List of Outlets dropdown                               * 'Average price during the period and Total spending during the period'</t>
-    </r>
-  </si>
-  <si>
-    <t>it will come Outlets, Suppliers, Reset and Apply</t>
-  </si>
-  <si>
-    <t>As expected it displayed the Outlet, Suppliers, Reset and Apply</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Filter-&gt;Suppliers</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>It should show List of suppliers and</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Select all and Deselect all and Apply or Reset'</t>
-    </r>
-  </si>
-  <si>
-    <t>1.Once click the selected option and Apply It will display the Details of selected suppliers                                                                             2.if you select Reset it will back to normal page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In Spending per Supplier:                                                                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. It should show the</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'Outlet, Supplier, SKU, Category and Tag                                                </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                         2.'Search SKU' text box                                                                                               3. calendar picker: Once click the calender It shows Today, Yesterday, This week, This Month, YTD, Last year, Custom range, cancel and Apply And Filter and Export                                 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It gets displayed the SKU name on top(Supplied by name), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Spending by period, Spending by outlet, Price history, Calendar picker, View by week, All UOMs, Filter, Export, Total spending, Invoices, Period, Invoices and Amount</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the SKU ,it will shows </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Spending by period, Spending by outlet, Price history"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">By default </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Spending by period'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is selected in blue color</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the particular </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'SKU-&gt;Spending by outlet'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the particular </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'SKU-&gt;Spending by period'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(New implement)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It will appears </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Calender picker, View by value/ View by quantity and Export"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Click the particular </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'SKU'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(New)</t>
-    </r>
-  </si>
-  <si>
-    <t>It displayed the details of the Spending by period are "calender picker, View by week, All UOMs, Filter and Export</t>
+      <t xml:space="preserve"> It will shows                                           * Calender picker and List of Outlets dropdown                               * 'Average price during the period and Total spending during the period'</t>
+    </r>
+  </si>
+  <si>
+    <t>It gets displayed the details of Price history like Date, Updated by and Unit price</t>
   </si>
 </sst>
 </file>
@@ -912,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +1005,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>14</v>
@@ -1038,7 +1054,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -1055,10 +1071,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>20</v>
@@ -1078,13 +1094,13 @@
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -1101,10 +1117,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1164,13 +1180,13 @@
         <v>9</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1236,10 +1252,10 @@
         <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1279,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>

--- a/Buyer hub/Reports/Manual testcases/Reports Spending per SKU.xlsx
+++ b/Buyer hub/Reports/Manual testcases/Reports Spending per SKU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Reports\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB3645-0B0C-42C6-9418-8EF8F200FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A484550E-D84B-413E-BF5B-F9637A87970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>SL. No</t>
   </si>
@@ -537,7 +537,7 @@
     </r>
   </si>
   <si>
-    <t>It gets displayed the details of Price history like Date, Updated by and Unit price</t>
+    <t>It gets displayed the details of Price history like Date, Updated by, Unit price, Change and Change&amp;</t>
   </si>
 </sst>
 </file>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,9 +1188,6 @@
       <c r="F11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
